--- a/Data/Processed/Angiosperms/missing_powo_ipni/Taccaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Taccaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -15887,7 +15887,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -17119,7 +17119,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -20507,7 +20507,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -20650,7 +20650,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -20914,7 +20914,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -21145,7 +21145,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -22707,7 +22707,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -23125,7 +23125,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23213,7 +23213,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -23620,7 +23620,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -24753,7 +24753,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
